--- a/Excel/Excel_Lesson_N+5_AdvancedFunctions/01_E02_Data.xlsx
+++ b/Excel/Excel_Lesson_N+5_AdvancedFunctions/01_E02_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riku\Desktop\Work\Coding_School\L006\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7520D7B2-CB66-4490-B741-0C8567444174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69403557-C936-4B29-AB20-C2B6F84113C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="840" windowWidth="8700" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="1" r:id="rId1"/>
@@ -884,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -899,7 +899,7 @@
     <col min="8" max="8" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -913,7 +913,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -921,12 +921,8 @@
         <v>76</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="J2" t="str">
-        <f>IF(B2&gt;=80,"A",(IF(B2&gt;=70,"B",(IF(B2&gt;=60,"C",(IF(B2&gt;=50,"D","F")))))))</f>
-        <v>B</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -935,7 +931,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -944,7 +940,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -953,7 +949,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -962,7 +958,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -971,7 +967,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -980,7 +976,7 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -989,7 +985,7 @@
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -998,7 +994,7 @@
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1007,7 +1003,7 @@
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1016,7 +1012,7 @@
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1025,7 +1021,7 @@
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1034,7 +1030,7 @@
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1043,7 +1039,7 @@
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
